--- a/projects/test_building/input/Parameter_SetTemperature.xlsx
+++ b/projects/test_building/input/Parameter_SetTemperature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8372E2D-85B6-FA45-875F-A0A9B3873400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF7FBC4-F0D1-5842-A7AE-3E4CE397445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3960" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="184" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5390,7 +5390,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable30" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable30" cacheId="184" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A3:M21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" showAll="0"/>
@@ -5780,7 +5780,7 @@
   <dimension ref="A1:I424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5845,14 +5845,14 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5875,14 +5875,14 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I3">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5905,14 +5905,14 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I4">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5935,14 +5935,14 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5965,14 +5965,14 @@
         <v>19</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -5995,14 +5995,14 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6025,14 +6025,14 @@
         <v>18</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I8">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6055,14 +6055,14 @@
         <v>18</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I9">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6085,14 +6085,14 @@
         <v>18</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6115,14 +6115,14 @@
         <v>20</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I11">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6145,14 +6145,14 @@
         <v>20</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6175,14 +6175,14 @@
         <v>20</v>
       </c>
       <c r="G13">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H13">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I13">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6205,14 +6205,14 @@
         <v>20</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H14">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I14">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6235,14 +6235,14 @@
         <v>19</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H15">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I15">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6265,14 +6265,14 @@
         <v>19</v>
       </c>
       <c r="G16">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H16">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I16">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -6295,14 +6295,14 @@
         <v>18</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H17">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I17">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -6325,14 +6325,14 @@
         <v>18</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H18">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I18">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6355,14 +6355,14 @@
         <v>18</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H19">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I19">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -6385,14 +6385,14 @@
         <v>20</v>
       </c>
       <c r="G20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H20">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I20">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -6415,14 +6415,14 @@
         <v>20</v>
       </c>
       <c r="G21">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H21">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I21">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -6445,14 +6445,14 @@
         <v>20</v>
       </c>
       <c r="G22">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H22">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I22">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -6475,14 +6475,14 @@
         <v>20</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H23">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I23">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -6505,14 +6505,14 @@
         <v>19</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H24">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I24">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -6535,14 +6535,14 @@
         <v>19</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H25">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I25">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6565,14 +6565,14 @@
         <v>18</v>
       </c>
       <c r="G26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H26">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I26">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -6595,14 +6595,14 @@
         <v>18</v>
       </c>
       <c r="G27">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H27">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I27">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -6625,14 +6625,14 @@
         <v>18</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H28">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I28">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -6655,14 +6655,14 @@
         <v>20</v>
       </c>
       <c r="G29">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H29">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I29">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -6685,14 +6685,14 @@
         <v>20</v>
       </c>
       <c r="G30">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H30">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I30">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -6715,14 +6715,14 @@
         <v>20</v>
       </c>
       <c r="G31">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H31">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I31">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6745,14 +6745,14 @@
         <v>20</v>
       </c>
       <c r="G32">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H32">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I32">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -6775,14 +6775,14 @@
         <v>19</v>
       </c>
       <c r="G33">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H33">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I33">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -6805,14 +6805,14 @@
         <v>19</v>
       </c>
       <c r="G34">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H34">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I34">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -6835,14 +6835,14 @@
         <v>18</v>
       </c>
       <c r="G35">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H35">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I35">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -6865,14 +6865,14 @@
         <v>18</v>
       </c>
       <c r="G36">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H36">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I36">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -6895,14 +6895,14 @@
         <v>18</v>
       </c>
       <c r="G37">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H37">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I37">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -6925,14 +6925,14 @@
         <v>20</v>
       </c>
       <c r="G38">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H38">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I38">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -6955,14 +6955,14 @@
         <v>20</v>
       </c>
       <c r="G39">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H39">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I39">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -6985,14 +6985,14 @@
         <v>20</v>
       </c>
       <c r="G40">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H40">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I40">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -7015,14 +7015,14 @@
         <v>20</v>
       </c>
       <c r="G41">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H41">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I41">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7045,14 +7045,14 @@
         <v>19</v>
       </c>
       <c r="G42">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H42">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I42">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7075,14 +7075,14 @@
         <v>19</v>
       </c>
       <c r="G43">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H43">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I43">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -7105,14 +7105,14 @@
         <v>18</v>
       </c>
       <c r="G44">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H44">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I44">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -7135,14 +7135,14 @@
         <v>18</v>
       </c>
       <c r="G45">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H45">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I45">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7165,14 +7165,14 @@
         <v>18</v>
       </c>
       <c r="G46">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H46">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I46">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -7195,14 +7195,14 @@
         <v>22</v>
       </c>
       <c r="G47">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H47">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>22</v>
       </c>
       <c r="I47">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -7225,14 +7225,14 @@
         <v>22</v>
       </c>
       <c r="G48">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H48">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>22</v>
       </c>
       <c r="I48">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -7255,14 +7255,14 @@
         <v>22</v>
       </c>
       <c r="G49">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H49">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>22</v>
       </c>
       <c r="I49">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7285,14 +7285,14 @@
         <v>22</v>
       </c>
       <c r="G50">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H50">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>22</v>
       </c>
       <c r="I50">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -7315,14 +7315,14 @@
         <v>22</v>
       </c>
       <c r="G51">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H51">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>22</v>
       </c>
       <c r="I51">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -7345,14 +7345,14 @@
         <v>22</v>
       </c>
       <c r="G52">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H52">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>22</v>
       </c>
       <c r="I52">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -7375,14 +7375,14 @@
         <v>22</v>
       </c>
       <c r="G53">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H53">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>22</v>
       </c>
       <c r="I53">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -7405,14 +7405,14 @@
         <v>22</v>
       </c>
       <c r="G54">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H54">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>22</v>
       </c>
       <c r="I54">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -7435,14 +7435,14 @@
         <v>22</v>
       </c>
       <c r="G55">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H55">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>22</v>
       </c>
       <c r="I55">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -7465,14 +7465,14 @@
         <v>25</v>
       </c>
       <c r="G56">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H56">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>25</v>
       </c>
       <c r="I56">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -7495,14 +7495,14 @@
         <v>25</v>
       </c>
       <c r="G57">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H57">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>25</v>
       </c>
       <c r="I57">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -7525,14 +7525,14 @@
         <v>25</v>
       </c>
       <c r="G58">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H58">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>25</v>
       </c>
       <c r="I58">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -7555,14 +7555,14 @@
         <v>25</v>
       </c>
       <c r="G59">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H59">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>25</v>
       </c>
       <c r="I59">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -7585,14 +7585,14 @@
         <v>25</v>
       </c>
       <c r="G60">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H60">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>25</v>
       </c>
       <c r="I60">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -7615,14 +7615,14 @@
         <v>25</v>
       </c>
       <c r="G61">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H61">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>25</v>
       </c>
       <c r="I61">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -7645,14 +7645,14 @@
         <v>25</v>
       </c>
       <c r="G62">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H62">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>25</v>
       </c>
       <c r="I62">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -7675,14 +7675,14 @@
         <v>25</v>
       </c>
       <c r="G63">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H63">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>25</v>
       </c>
       <c r="I63">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -7705,14 +7705,14 @@
         <v>25</v>
       </c>
       <c r="G64">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H64">
         <f>Table1[[#This Row],[occupied_min]]</f>
         <v>25</v>
       </c>
       <c r="I64">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -7735,14 +7735,14 @@
         <v>15</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H65">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I65">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -7765,14 +7765,14 @@
         <v>15</v>
       </c>
       <c r="G66">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H66">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I66">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -7795,14 +7795,14 @@
         <v>15</v>
       </c>
       <c r="G67">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H67">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I67">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -7825,14 +7825,14 @@
         <v>15</v>
       </c>
       <c r="G68">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H68">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I68">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -7855,14 +7855,14 @@
         <v>15</v>
       </c>
       <c r="G69">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H69">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I69">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -7885,14 +7885,14 @@
         <v>15</v>
       </c>
       <c r="G70">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H70">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I70">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -7915,14 +7915,14 @@
         <v>15</v>
       </c>
       <c r="G71">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H71">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I71">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -7945,14 +7945,14 @@
         <v>15</v>
       </c>
       <c r="G72">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H72">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I72">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -7975,14 +7975,14 @@
         <v>15</v>
       </c>
       <c r="G73">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H73">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I73">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -8005,14 +8005,14 @@
         <v>15</v>
       </c>
       <c r="G74">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H74">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I74">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -8035,14 +8035,14 @@
         <v>15</v>
       </c>
       <c r="G75">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H75">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I75">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -8065,14 +8065,14 @@
         <v>15</v>
       </c>
       <c r="G76">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H76">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I76">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -8095,14 +8095,14 @@
         <v>15</v>
       </c>
       <c r="G77">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H77">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I77">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -8125,14 +8125,14 @@
         <v>15</v>
       </c>
       <c r="G78">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H78">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I78">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -8155,14 +8155,14 @@
         <v>15</v>
       </c>
       <c r="G79">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H79">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I79">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -8185,14 +8185,14 @@
         <v>15</v>
       </c>
       <c r="G80">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H80">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I80">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -8215,14 +8215,14 @@
         <v>15</v>
       </c>
       <c r="G81">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H81">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I81">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -8245,14 +8245,14 @@
         <v>15</v>
       </c>
       <c r="G82">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H82">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I82">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -8275,14 +8275,14 @@
         <v>15</v>
       </c>
       <c r="G83">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H83">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I83">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -8305,14 +8305,14 @@
         <v>15</v>
       </c>
       <c r="G84">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H84">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I84">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -8335,14 +8335,14 @@
         <v>15</v>
       </c>
       <c r="G85">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H85">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I85">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -8365,14 +8365,14 @@
         <v>15</v>
       </c>
       <c r="G86">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H86">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I86">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -8395,14 +8395,14 @@
         <v>15</v>
       </c>
       <c r="G87">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H87">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I87">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -8425,14 +8425,14 @@
         <v>15</v>
       </c>
       <c r="G88">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H88">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I88">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -8455,14 +8455,14 @@
         <v>15</v>
       </c>
       <c r="G89">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H89">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I89">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -8485,14 +8485,14 @@
         <v>15</v>
       </c>
       <c r="G90">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H90">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I90">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -8515,14 +8515,14 @@
         <v>15</v>
       </c>
       <c r="G91">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H91">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I91">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -8545,14 +8545,14 @@
         <v>15</v>
       </c>
       <c r="G92">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H92">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I92">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -8575,14 +8575,14 @@
         <v>15</v>
       </c>
       <c r="G93">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H93">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I93">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -8605,14 +8605,14 @@
         <v>15</v>
       </c>
       <c r="G94">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H94">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I94">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -8635,14 +8635,14 @@
         <v>15</v>
       </c>
       <c r="G95">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H95">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I95">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -8665,14 +8665,14 @@
         <v>15</v>
       </c>
       <c r="G96">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H96">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I96">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -8695,14 +8695,14 @@
         <v>15</v>
       </c>
       <c r="G97">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H97">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I97">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -8725,14 +8725,14 @@
         <v>15</v>
       </c>
       <c r="G98">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H98">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I98">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -8755,14 +8755,14 @@
         <v>15</v>
       </c>
       <c r="G99">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H99">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I99">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -8785,14 +8785,14 @@
         <v>15</v>
       </c>
       <c r="G100">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H100">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I100">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -8815,14 +8815,14 @@
         <v>18</v>
       </c>
       <c r="G101">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H101">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I101">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -8845,14 +8845,14 @@
         <v>18</v>
       </c>
       <c r="G102">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H102">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I102">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -8875,14 +8875,14 @@
         <v>18</v>
       </c>
       <c r="G103">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H103">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I103">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -8905,14 +8905,14 @@
         <v>17</v>
       </c>
       <c r="G104">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H104">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I104">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -8935,14 +8935,14 @@
         <v>17</v>
       </c>
       <c r="G105">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H105">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I105">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -8965,14 +8965,14 @@
         <v>17</v>
       </c>
       <c r="G106">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H106">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I106">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -8995,14 +8995,14 @@
         <v>16</v>
       </c>
       <c r="G107">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H107">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I107">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -9025,14 +9025,14 @@
         <v>16</v>
       </c>
       <c r="G108">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H108">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I108">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -9055,14 +9055,14 @@
         <v>16</v>
       </c>
       <c r="G109">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H109">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I109">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -9085,14 +9085,14 @@
         <v>15</v>
       </c>
       <c r="G110">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H110">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I110">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -9115,14 +9115,14 @@
         <v>15</v>
       </c>
       <c r="G111">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H111">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I111">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -9145,14 +9145,14 @@
         <v>15</v>
       </c>
       <c r="G112">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H112">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I112">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -9175,14 +9175,14 @@
         <v>15</v>
       </c>
       <c r="G113">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H113">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I113">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -9205,14 +9205,14 @@
         <v>15</v>
       </c>
       <c r="G114">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H114">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I114">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -9235,14 +9235,14 @@
         <v>15</v>
       </c>
       <c r="G115">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H115">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I115">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -9265,14 +9265,14 @@
         <v>15</v>
       </c>
       <c r="G116">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H116">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I116">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -9295,14 +9295,14 @@
         <v>15</v>
       </c>
       <c r="G117">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H117">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I117">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -9325,14 +9325,14 @@
         <v>15</v>
       </c>
       <c r="G118">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H118">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I118">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -9355,14 +9355,14 @@
         <v>15</v>
       </c>
       <c r="G119">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H119">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I119">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -9385,14 +9385,14 @@
         <v>15</v>
       </c>
       <c r="G120">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H120">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I120">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -9415,14 +9415,14 @@
         <v>15</v>
       </c>
       <c r="G121">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H121">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I121">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -9445,14 +9445,14 @@
         <v>15</v>
       </c>
       <c r="G122">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H122">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I122">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -9475,14 +9475,14 @@
         <v>15</v>
       </c>
       <c r="G123">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H123">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I123">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -9505,14 +9505,14 @@
         <v>15</v>
       </c>
       <c r="G124">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H124">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I124">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -9535,14 +9535,14 @@
         <v>15</v>
       </c>
       <c r="G125">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H125">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I125">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -9565,14 +9565,14 @@
         <v>15</v>
       </c>
       <c r="G126">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H126">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I126">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -9595,14 +9595,14 @@
         <v>15</v>
       </c>
       <c r="G127">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H127">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I127">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -9625,14 +9625,14 @@
         <v>18</v>
       </c>
       <c r="G128">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H128">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I128">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -9655,14 +9655,14 @@
         <v>18</v>
       </c>
       <c r="G129">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H129">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I129">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -9685,14 +9685,14 @@
         <v>18</v>
       </c>
       <c r="G130">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H130">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I130">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -9715,14 +9715,14 @@
         <v>18</v>
       </c>
       <c r="G131">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H131">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I131">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -9745,14 +9745,14 @@
         <v>18</v>
       </c>
       <c r="G132">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H132">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I132">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -9775,14 +9775,14 @@
         <v>18</v>
       </c>
       <c r="G133">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H133">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I133">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -9805,14 +9805,14 @@
         <v>18</v>
       </c>
       <c r="G134">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H134">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I134">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -9835,14 +9835,14 @@
         <v>18</v>
       </c>
       <c r="G135">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H135">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I135">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -9865,14 +9865,14 @@
         <v>18</v>
       </c>
       <c r="G136">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H136">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I136">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -9895,14 +9895,14 @@
         <v>15</v>
       </c>
       <c r="G137">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H137">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I137">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -9925,14 +9925,14 @@
         <v>15</v>
       </c>
       <c r="G138">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H138">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I138">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -9955,14 +9955,14 @@
         <v>15</v>
       </c>
       <c r="G139">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H139">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I139">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -9985,14 +9985,14 @@
         <v>15</v>
       </c>
       <c r="G140">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H140">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I140">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -10015,14 +10015,14 @@
         <v>15</v>
       </c>
       <c r="G141">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H141">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I141">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -10045,14 +10045,14 @@
         <v>15</v>
       </c>
       <c r="G142">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H142">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I142">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -10075,14 +10075,14 @@
         <v>15</v>
       </c>
       <c r="G143">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H143">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I143">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -10105,14 +10105,14 @@
         <v>15</v>
       </c>
       <c r="G144">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H144">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I144">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -10135,14 +10135,14 @@
         <v>15</v>
       </c>
       <c r="G145">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H145">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I145">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -10165,14 +10165,14 @@
         <v>15</v>
       </c>
       <c r="G146">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H146">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I146">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -10195,14 +10195,14 @@
         <v>15</v>
       </c>
       <c r="G147">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H147">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I147">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -10225,14 +10225,14 @@
         <v>15</v>
       </c>
       <c r="G148">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H148">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I148">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -10255,14 +10255,14 @@
         <v>15</v>
       </c>
       <c r="G149">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H149">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I149">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -10285,14 +10285,14 @@
         <v>15</v>
       </c>
       <c r="G150">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H150">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I150">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -10315,14 +10315,14 @@
         <v>15</v>
       </c>
       <c r="G151">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H151">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I151">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -10345,14 +10345,14 @@
         <v>15</v>
       </c>
       <c r="G152">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H152">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I152">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -10375,14 +10375,14 @@
         <v>15</v>
       </c>
       <c r="G153">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H153">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I153">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -10405,14 +10405,14 @@
         <v>15</v>
       </c>
       <c r="G154">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H154">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I154">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -10435,14 +10435,14 @@
         <v>18</v>
       </c>
       <c r="G155">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H155">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I155">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -10465,14 +10465,14 @@
         <v>18</v>
       </c>
       <c r="G156">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H156">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I156">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -10495,14 +10495,14 @@
         <v>18</v>
       </c>
       <c r="G157">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H157">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I157">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -10525,14 +10525,14 @@
         <v>18</v>
       </c>
       <c r="G158">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H158">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I158">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -10555,14 +10555,14 @@
         <v>18</v>
       </c>
       <c r="G159">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H159">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I159">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -10585,14 +10585,14 @@
         <v>18</v>
       </c>
       <c r="G160">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H160">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I160">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -10615,14 +10615,14 @@
         <v>18</v>
       </c>
       <c r="G161">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H161">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I161">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -10645,14 +10645,14 @@
         <v>18</v>
       </c>
       <c r="G162">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H162">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I162">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -10675,14 +10675,14 @@
         <v>18</v>
       </c>
       <c r="G163">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H163">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I163">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -10705,14 +10705,14 @@
         <v>20</v>
       </c>
       <c r="G164">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H164">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I164">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -10735,14 +10735,14 @@
         <v>20</v>
       </c>
       <c r="G165">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H165">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I165">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -10765,14 +10765,14 @@
         <v>20</v>
       </c>
       <c r="G166">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H166">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I166">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -10795,14 +10795,14 @@
         <v>20</v>
       </c>
       <c r="G167">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H167">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I167">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -10825,14 +10825,14 @@
         <v>20</v>
       </c>
       <c r="G168">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H168">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I168">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -10855,14 +10855,14 @@
         <v>20</v>
       </c>
       <c r="G169">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H169">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I169">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -10885,14 +10885,14 @@
         <v>20</v>
       </c>
       <c r="G170">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H170">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I170">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -10915,14 +10915,14 @@
         <v>20</v>
       </c>
       <c r="G171">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H171">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I171">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -10945,14 +10945,14 @@
         <v>20</v>
       </c>
       <c r="G172">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H172">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I172">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -10975,14 +10975,14 @@
         <v>18</v>
       </c>
       <c r="G173">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H173">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I173">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -11005,14 +11005,14 @@
         <v>18</v>
       </c>
       <c r="G174">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H174">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I174">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -11035,14 +11035,14 @@
         <v>18</v>
       </c>
       <c r="G175">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H175">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I175">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -11065,14 +11065,14 @@
         <v>18</v>
       </c>
       <c r="G176">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H176">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I176">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -11095,14 +11095,14 @@
         <v>18</v>
       </c>
       <c r="G177">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H177">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I177">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -11125,14 +11125,14 @@
         <v>18</v>
       </c>
       <c r="G178">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H178">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I178">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -11155,14 +11155,14 @@
         <v>18</v>
       </c>
       <c r="G179">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H179">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I179">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -11185,14 +11185,14 @@
         <v>18</v>
       </c>
       <c r="G180">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H180">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I180">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -11215,14 +11215,14 @@
         <v>18</v>
       </c>
       <c r="G181">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H181">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I181">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -11245,14 +11245,14 @@
         <v>18</v>
       </c>
       <c r="G182">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H182">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I182">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -11275,14 +11275,14 @@
         <v>18</v>
       </c>
       <c r="G183">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H183">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I183">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -11305,14 +11305,14 @@
         <v>18</v>
       </c>
       <c r="G184">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H184">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I184">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -11335,14 +11335,14 @@
         <v>17</v>
       </c>
       <c r="G185">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H185">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I185">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -11365,14 +11365,14 @@
         <v>17</v>
       </c>
       <c r="G186">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H186">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I186">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -11395,14 +11395,14 @@
         <v>17</v>
       </c>
       <c r="G187">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H187">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I187">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -11425,14 +11425,14 @@
         <v>16</v>
       </c>
       <c r="G188">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H188">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I188">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -11455,14 +11455,14 @@
         <v>16</v>
       </c>
       <c r="G189">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H189">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I189">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -11485,14 +11485,14 @@
         <v>16</v>
       </c>
       <c r="G190">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H190">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I190">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -11515,14 +11515,14 @@
         <v>12</v>
       </c>
       <c r="G191">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H191">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>9</v>
       </c>
       <c r="I191">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -11545,14 +11545,14 @@
         <v>12</v>
       </c>
       <c r="G192">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H192">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>9</v>
       </c>
       <c r="I192">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -11575,14 +11575,14 @@
         <v>12</v>
       </c>
       <c r="G193">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H193">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>9</v>
       </c>
       <c r="I193">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -11605,14 +11605,14 @@
         <v>12</v>
       </c>
       <c r="G194">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H194">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>9</v>
       </c>
       <c r="I194">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -11635,14 +11635,14 @@
         <v>12</v>
       </c>
       <c r="G195">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H195">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>9</v>
       </c>
       <c r="I195">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -11665,14 +11665,14 @@
         <v>12</v>
       </c>
       <c r="G196">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H196">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>9</v>
       </c>
       <c r="I196">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -11695,14 +11695,14 @@
         <v>12</v>
       </c>
       <c r="G197">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H197">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>9</v>
       </c>
       <c r="I197">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -11725,14 +11725,14 @@
         <v>12</v>
       </c>
       <c r="G198">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H198">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>9</v>
       </c>
       <c r="I198">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -11755,14 +11755,14 @@
         <v>12</v>
       </c>
       <c r="G199">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H199">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>9</v>
       </c>
       <c r="I199">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -11785,14 +11785,14 @@
         <v>15</v>
       </c>
       <c r="G200">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H200">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I200">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -11815,14 +11815,14 @@
         <v>15</v>
       </c>
       <c r="G201">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H201">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I201">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -11845,14 +11845,14 @@
         <v>15</v>
       </c>
       <c r="G202">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H202">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I202">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -11875,14 +11875,14 @@
         <v>15</v>
       </c>
       <c r="G203">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H203">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I203">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -11905,14 +11905,14 @@
         <v>15</v>
       </c>
       <c r="G204">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H204">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I204">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -11935,14 +11935,14 @@
         <v>15</v>
       </c>
       <c r="G205">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H205">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I205">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -11965,14 +11965,14 @@
         <v>15</v>
       </c>
       <c r="G206">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H206">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I206">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -11995,14 +11995,14 @@
         <v>15</v>
       </c>
       <c r="G207">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H207">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I207">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -12025,14 +12025,14 @@
         <v>15</v>
       </c>
       <c r="G208">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H208">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I208">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -12055,14 +12055,14 @@
         <v>19</v>
       </c>
       <c r="G209">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H209">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I209">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -12085,14 +12085,14 @@
         <v>19</v>
       </c>
       <c r="G210">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H210">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I210">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -12115,14 +12115,14 @@
         <v>19</v>
       </c>
       <c r="G211">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H211">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I211">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -12145,14 +12145,14 @@
         <v>18</v>
       </c>
       <c r="G212">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H212">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I212">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -12175,14 +12175,14 @@
         <v>18</v>
       </c>
       <c r="G213">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H213">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I213">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -12205,14 +12205,14 @@
         <v>18</v>
       </c>
       <c r="G214">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H214">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I214">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -12235,14 +12235,14 @@
         <v>17</v>
       </c>
       <c r="G215">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H215">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I215">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -12265,14 +12265,14 @@
         <v>17</v>
       </c>
       <c r="G216">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H216">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I216">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -12295,14 +12295,14 @@
         <v>17</v>
       </c>
       <c r="G217">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H217">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I217">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -12325,14 +12325,14 @@
         <v>19</v>
       </c>
       <c r="G218">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H218">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I218">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -12355,14 +12355,14 @@
         <v>19</v>
       </c>
       <c r="G219">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H219">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I219">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -12385,14 +12385,14 @@
         <v>19</v>
       </c>
       <c r="G220">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H220">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I220">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -12415,14 +12415,14 @@
         <v>19</v>
       </c>
       <c r="G221">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H221">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I221">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -12445,14 +12445,14 @@
         <v>18</v>
       </c>
       <c r="G222">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H222">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I222">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -12475,14 +12475,14 @@
         <v>18</v>
       </c>
       <c r="G223">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H223">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I223">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -12505,14 +12505,14 @@
         <v>18</v>
       </c>
       <c r="G224">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H224">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I224">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -12535,14 +12535,14 @@
         <v>18</v>
       </c>
       <c r="G225">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H225">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I225">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -12565,14 +12565,14 @@
         <v>18</v>
       </c>
       <c r="G226">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H226">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I226">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -12595,14 +12595,14 @@
         <v>20</v>
       </c>
       <c r="G227">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H227">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I227">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -12625,14 +12625,14 @@
         <v>20</v>
       </c>
       <c r="G228">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H228">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I228">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -12655,14 +12655,14 @@
         <v>20</v>
       </c>
       <c r="G229">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H229">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I229">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -12685,14 +12685,14 @@
         <v>19</v>
       </c>
       <c r="G230">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H230">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I230">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -12715,14 +12715,14 @@
         <v>19</v>
       </c>
       <c r="G231">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H231">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I231">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -12745,14 +12745,14 @@
         <v>19</v>
       </c>
       <c r="G232">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H232">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I232">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -12775,14 +12775,14 @@
         <v>18</v>
       </c>
       <c r="G233">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H233">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I233">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -12805,14 +12805,14 @@
         <v>18</v>
       </c>
       <c r="G234">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H234">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I234">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -12835,14 +12835,14 @@
         <v>18</v>
       </c>
       <c r="G235">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H235">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I235">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -12865,14 +12865,14 @@
         <v>20</v>
       </c>
       <c r="G236">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H236">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I236">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -12895,14 +12895,14 @@
         <v>20</v>
       </c>
       <c r="G237">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H237">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I237">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -12925,14 +12925,14 @@
         <v>20</v>
       </c>
       <c r="G238">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H238">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I238">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -12955,14 +12955,14 @@
         <v>19</v>
       </c>
       <c r="G239">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H239">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I239">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -12985,14 +12985,14 @@
         <v>19</v>
       </c>
       <c r="G240">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H240">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I240">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -13015,14 +13015,14 @@
         <v>19</v>
       </c>
       <c r="G241">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H241">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I241">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -13045,14 +13045,14 @@
         <v>18</v>
       </c>
       <c r="G242">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H242">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I242">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -13075,14 +13075,14 @@
         <v>18</v>
       </c>
       <c r="G243">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H243">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I243">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -13105,14 +13105,14 @@
         <v>18</v>
       </c>
       <c r="G244">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H244">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I244">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -13135,14 +13135,14 @@
         <v>15</v>
       </c>
       <c r="G245">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H245">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I245">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -13165,14 +13165,14 @@
         <v>15</v>
       </c>
       <c r="G246">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H246">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I246">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -13195,14 +13195,14 @@
         <v>15</v>
       </c>
       <c r="G247">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H247">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I247">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -13225,14 +13225,14 @@
         <v>15</v>
       </c>
       <c r="G248">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H248">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I248">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -13255,14 +13255,14 @@
         <v>15</v>
       </c>
       <c r="G249">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H249">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I249">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -13285,14 +13285,14 @@
         <v>15</v>
       </c>
       <c r="G250">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H250">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I250">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -13315,14 +13315,14 @@
         <v>15</v>
       </c>
       <c r="G251">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H251">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I251">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -13345,14 +13345,14 @@
         <v>15</v>
       </c>
       <c r="G252">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H252">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I252">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -13375,14 +13375,14 @@
         <v>15</v>
       </c>
       <c r="G253">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H253">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I253">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -13405,14 +13405,14 @@
         <v>20</v>
       </c>
       <c r="G254">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H254">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I254">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -13435,14 +13435,14 @@
         <v>20</v>
       </c>
       <c r="G255">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H255">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I255">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -13465,14 +13465,14 @@
         <v>20</v>
       </c>
       <c r="G256">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H256">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I256">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -13495,14 +13495,14 @@
         <v>20</v>
       </c>
       <c r="G257">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H257">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I257">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -13525,14 +13525,14 @@
         <v>20</v>
       </c>
       <c r="G258">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H258">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I258">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -13555,14 +13555,14 @@
         <v>20</v>
       </c>
       <c r="G259">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H259">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I259">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -13585,14 +13585,14 @@
         <v>20</v>
       </c>
       <c r="G260">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H260">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I260">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -13615,14 +13615,14 @@
         <v>20</v>
       </c>
       <c r="G261">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H261">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I261">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -13645,14 +13645,14 @@
         <v>20</v>
       </c>
       <c r="G262">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H262">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I262">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -13675,14 +13675,14 @@
         <v>20</v>
       </c>
       <c r="G263">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H263">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I263">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -13705,14 +13705,14 @@
         <v>20</v>
       </c>
       <c r="G264">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H264">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I264">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -13735,14 +13735,14 @@
         <v>20</v>
       </c>
       <c r="G265">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H265">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I265">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -13765,14 +13765,14 @@
         <v>19</v>
       </c>
       <c r="G266">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H266">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I266">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -13795,14 +13795,14 @@
         <v>19</v>
       </c>
       <c r="G267">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H267">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I267">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -13825,14 +13825,14 @@
         <v>19</v>
       </c>
       <c r="G268">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H268">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>16</v>
       </c>
       <c r="I268">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -13855,14 +13855,14 @@
         <v>18</v>
       </c>
       <c r="G269">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H269">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I269">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -13885,14 +13885,14 @@
         <v>18</v>
       </c>
       <c r="G270">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H270">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I270">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -13915,14 +13915,14 @@
         <v>18</v>
       </c>
       <c r="G271">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H271">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I271">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -13945,14 +13945,14 @@
         <v>15</v>
       </c>
       <c r="G272">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H272">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I272">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -13975,14 +13975,14 @@
         <v>15</v>
       </c>
       <c r="G273">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H273">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I273">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -14005,14 +14005,14 @@
         <v>15</v>
       </c>
       <c r="G274">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H274">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I274">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -14035,14 +14035,14 @@
         <v>15</v>
       </c>
       <c r="G275">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H275">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I275">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -14065,14 +14065,14 @@
         <v>15</v>
       </c>
       <c r="G276">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H276">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I276">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -14095,14 +14095,14 @@
         <v>15</v>
       </c>
       <c r="G277">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H277">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I277">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -14125,14 +14125,14 @@
         <v>15</v>
       </c>
       <c r="G278">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H278">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I278">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -14155,14 +14155,14 @@
         <v>15</v>
       </c>
       <c r="G279">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H279">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I279">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -14185,14 +14185,14 @@
         <v>15</v>
       </c>
       <c r="G280">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H280">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>12</v>
       </c>
       <c r="I280">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -14215,14 +14215,14 @@
         <v>18</v>
       </c>
       <c r="G281">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H281">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I281">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -14245,14 +14245,14 @@
         <v>18</v>
       </c>
       <c r="G282">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H282">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I282">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -14275,14 +14275,14 @@
         <v>18</v>
       </c>
       <c r="G283">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H283">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I283">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -14305,14 +14305,14 @@
         <v>17</v>
       </c>
       <c r="G284">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H284">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I284">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -14335,14 +14335,14 @@
         <v>17</v>
       </c>
       <c r="G285">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H285">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I285">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -14365,14 +14365,14 @@
         <v>17</v>
       </c>
       <c r="G286">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H286">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I286">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -14395,14 +14395,14 @@
         <v>16</v>
       </c>
       <c r="G287">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H287">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I287">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -14425,14 +14425,14 @@
         <v>16</v>
       </c>
       <c r="G288">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H288">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I288">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -14455,14 +14455,14 @@
         <v>16</v>
       </c>
       <c r="G289">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H289">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I289">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
@@ -14485,14 +14485,14 @@
         <v>14</v>
       </c>
       <c r="G290">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H290">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I290">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -14515,14 +14515,14 @@
         <v>14</v>
       </c>
       <c r="G291">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H291">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I291">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -14545,14 +14545,14 @@
         <v>14</v>
       </c>
       <c r="G292">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H292">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I292">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
@@ -14575,14 +14575,14 @@
         <v>14</v>
       </c>
       <c r="G293">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H293">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I293">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -14605,14 +14605,14 @@
         <v>14</v>
       </c>
       <c r="G294">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H294">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I294">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -14635,14 +14635,14 @@
         <v>14</v>
       </c>
       <c r="G295">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H295">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I295">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -14665,14 +14665,14 @@
         <v>14</v>
       </c>
       <c r="G296">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H296">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I296">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
@@ -14695,14 +14695,14 @@
         <v>14</v>
       </c>
       <c r="G297">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H297">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I297">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -14725,14 +14725,14 @@
         <v>14</v>
       </c>
       <c r="G298">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H298">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I298">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
@@ -14755,14 +14755,14 @@
         <v>14</v>
       </c>
       <c r="G299">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H299">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I299">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
@@ -14785,14 +14785,14 @@
         <v>14</v>
       </c>
       <c r="G300">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H300">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I300">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
@@ -14815,14 +14815,14 @@
         <v>14</v>
       </c>
       <c r="G301">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H301">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I301">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -14845,14 +14845,14 @@
         <v>14</v>
       </c>
       <c r="G302">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H302">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I302">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -14875,14 +14875,14 @@
         <v>14</v>
       </c>
       <c r="G303">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H303">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I303">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -14905,14 +14905,14 @@
         <v>14</v>
       </c>
       <c r="G304">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H304">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I304">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -14935,14 +14935,14 @@
         <v>14</v>
       </c>
       <c r="G305">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H305">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I305">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -14965,14 +14965,14 @@
         <v>14</v>
       </c>
       <c r="G306">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H306">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I306">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -14995,14 +14995,14 @@
         <v>14</v>
       </c>
       <c r="G307">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H307">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I307">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -15025,14 +15025,14 @@
         <v>18</v>
       </c>
       <c r="G308">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H308">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I308">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -15055,14 +15055,14 @@
         <v>18</v>
       </c>
       <c r="G309">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H309">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I309">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -15085,14 +15085,14 @@
         <v>18</v>
       </c>
       <c r="G310">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H310">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I310">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
@@ -15115,14 +15115,14 @@
         <v>17</v>
       </c>
       <c r="G311">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H311">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I311">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -15145,14 +15145,14 @@
         <v>17</v>
       </c>
       <c r="G312">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H312">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I312">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -15175,14 +15175,14 @@
         <v>17</v>
       </c>
       <c r="G313">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H313">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>14</v>
       </c>
       <c r="I313">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
@@ -15205,14 +15205,14 @@
         <v>16</v>
       </c>
       <c r="G314">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H314">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I314">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -15235,14 +15235,14 @@
         <v>16</v>
       </c>
       <c r="G315">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H315">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I315">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
@@ -15265,14 +15265,14 @@
         <v>16</v>
       </c>
       <c r="G316">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H316">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>13</v>
       </c>
       <c r="I316">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -15295,14 +15295,14 @@
         <v>18</v>
       </c>
       <c r="G317">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H317">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I317">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -15325,14 +15325,14 @@
         <v>18</v>
       </c>
       <c r="G318">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H318">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I318">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
@@ -15355,14 +15355,14 @@
         <v>18</v>
       </c>
       <c r="G319">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H319">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I319">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -15385,14 +15385,14 @@
         <v>18</v>
       </c>
       <c r="G320">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H320">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I320">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
@@ -15415,14 +15415,14 @@
         <v>18</v>
       </c>
       <c r="G321">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H321">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I321">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
@@ -15445,14 +15445,14 @@
         <v>18</v>
       </c>
       <c r="G322">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H322">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I322">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
@@ -15475,14 +15475,14 @@
         <v>18</v>
       </c>
       <c r="G323">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H323">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I323">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
@@ -15505,14 +15505,14 @@
         <v>18</v>
       </c>
       <c r="G324">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H324">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I324">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
@@ -15535,14 +15535,14 @@
         <v>18</v>
       </c>
       <c r="G325">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H325">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I325">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
@@ -15565,14 +15565,14 @@
         <v>14</v>
       </c>
       <c r="G326">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H326">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I326">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
@@ -15595,14 +15595,14 @@
         <v>14</v>
       </c>
       <c r="G327">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H327">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I327">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
@@ -15625,14 +15625,14 @@
         <v>14</v>
       </c>
       <c r="G328">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H328">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I328">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
@@ -15655,14 +15655,14 @@
         <v>14</v>
       </c>
       <c r="G329">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H329">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I329">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
@@ -15685,14 +15685,14 @@
         <v>14</v>
       </c>
       <c r="G330">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H330">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I330">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
@@ -15715,14 +15715,14 @@
         <v>14</v>
       </c>
       <c r="G331">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H331">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I331">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
@@ -15745,14 +15745,14 @@
         <v>14</v>
       </c>
       <c r="G332">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H332">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I332">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
@@ -15775,14 +15775,14 @@
         <v>14</v>
       </c>
       <c r="G333">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H333">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I333">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
@@ -15805,14 +15805,14 @@
         <v>14</v>
       </c>
       <c r="G334">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H334">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I334">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
@@ -15835,14 +15835,14 @@
         <v>14</v>
       </c>
       <c r="G335">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H335">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I335">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
@@ -15865,14 +15865,14 @@
         <v>14</v>
       </c>
       <c r="G336">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H336">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I336">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
@@ -15895,14 +15895,14 @@
         <v>14</v>
       </c>
       <c r="G337">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H337">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I337">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
@@ -15925,14 +15925,14 @@
         <v>14</v>
       </c>
       <c r="G338">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H338">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I338">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
@@ -15955,14 +15955,14 @@
         <v>14</v>
       </c>
       <c r="G339">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H339">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I339">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
@@ -15985,14 +15985,14 @@
         <v>14</v>
       </c>
       <c r="G340">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H340">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I340">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
@@ -16015,14 +16015,14 @@
         <v>14</v>
       </c>
       <c r="G341">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H341">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I341">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
@@ -16045,14 +16045,14 @@
         <v>14</v>
       </c>
       <c r="G342">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H342">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I342">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
@@ -16075,14 +16075,14 @@
         <v>14</v>
       </c>
       <c r="G343">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H343">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I343">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
@@ -16105,14 +16105,14 @@
         <v>20</v>
       </c>
       <c r="G344">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H344">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I344">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
@@ -16135,14 +16135,14 @@
         <v>20</v>
       </c>
       <c r="G345">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H345">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I345">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
@@ -16165,14 +16165,14 @@
         <v>20</v>
       </c>
       <c r="G346">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H346">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I346">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
@@ -16195,14 +16195,14 @@
         <v>20</v>
       </c>
       <c r="G347">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H347">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I347">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
@@ -16225,14 +16225,14 @@
         <v>20</v>
       </c>
       <c r="G348">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H348">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I348">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
@@ -16255,14 +16255,14 @@
         <v>20</v>
       </c>
       <c r="G349">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H349">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I349">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
@@ -16285,14 +16285,14 @@
         <v>20</v>
       </c>
       <c r="G350">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H350">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I350">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
@@ -16315,14 +16315,14 @@
         <v>20</v>
       </c>
       <c r="G351">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H351">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I351">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
@@ -16345,14 +16345,14 @@
         <v>20</v>
       </c>
       <c r="G352">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H352">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>17</v>
       </c>
       <c r="I352">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
@@ -16375,14 +16375,14 @@
         <v>14</v>
       </c>
       <c r="G353">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H353">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I353">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
@@ -16405,14 +16405,14 @@
         <v>14</v>
       </c>
       <c r="G354">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H354">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I354">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
@@ -16435,14 +16435,14 @@
         <v>14</v>
       </c>
       <c r="G355">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H355">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I355">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
@@ -16465,14 +16465,14 @@
         <v>14</v>
       </c>
       <c r="G356">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H356">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I356">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
@@ -16495,14 +16495,14 @@
         <v>14</v>
       </c>
       <c r="G357">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H357">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I357">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
@@ -16525,14 +16525,14 @@
         <v>14</v>
       </c>
       <c r="G358">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H358">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I358">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
@@ -16555,14 +16555,14 @@
         <v>14</v>
       </c>
       <c r="G359">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H359">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I359">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
@@ -16585,14 +16585,14 @@
         <v>14</v>
       </c>
       <c r="G360">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H360">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I360">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
@@ -16615,14 +16615,14 @@
         <v>14</v>
       </c>
       <c r="G361">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H361">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I361">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
@@ -16645,14 +16645,14 @@
         <v>14</v>
       </c>
       <c r="G362">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H362">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I362">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
@@ -16675,14 +16675,14 @@
         <v>14</v>
       </c>
       <c r="G363">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H363">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I363">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
@@ -16705,14 +16705,14 @@
         <v>14</v>
       </c>
       <c r="G364">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H364">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I364">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
@@ -16735,14 +16735,14 @@
         <v>14</v>
       </c>
       <c r="G365">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H365">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I365">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
@@ -16765,14 +16765,14 @@
         <v>14</v>
       </c>
       <c r="G366">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H366">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I366">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
@@ -16795,14 +16795,14 @@
         <v>14</v>
       </c>
       <c r="G367">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H367">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I367">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
@@ -16825,14 +16825,14 @@
         <v>14</v>
       </c>
       <c r="G368">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H368">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I368">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -16855,14 +16855,14 @@
         <v>14</v>
       </c>
       <c r="G369">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H369">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I369">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -16885,14 +16885,14 @@
         <v>14</v>
       </c>
       <c r="G370">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H370">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I370">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -16915,14 +16915,14 @@
         <v>14</v>
       </c>
       <c r="G371">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H371">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I371">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
@@ -16945,14 +16945,14 @@
         <v>14</v>
       </c>
       <c r="G372">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H372">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I372">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.2">
@@ -16975,14 +16975,14 @@
         <v>14</v>
       </c>
       <c r="G373">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H373">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I373">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
@@ -17005,14 +17005,14 @@
         <v>14</v>
       </c>
       <c r="G374">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H374">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I374">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.2">
@@ -17035,14 +17035,14 @@
         <v>14</v>
       </c>
       <c r="G375">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H375">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I375">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
@@ -17065,14 +17065,14 @@
         <v>14</v>
       </c>
       <c r="G376">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H376">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I376">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
@@ -17095,14 +17095,14 @@
         <v>14</v>
       </c>
       <c r="G377">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H377">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I377">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
@@ -17125,14 +17125,14 @@
         <v>14</v>
       </c>
       <c r="G378">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H378">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I378">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
@@ -17155,14 +17155,14 @@
         <v>14</v>
       </c>
       <c r="G379">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H379">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I379">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
@@ -17185,14 +17185,14 @@
         <v>14</v>
       </c>
       <c r="G380">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H380">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I380">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
@@ -17215,14 +17215,14 @@
         <v>14</v>
       </c>
       <c r="G381">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H381">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I381">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
@@ -17245,14 +17245,14 @@
         <v>14</v>
       </c>
       <c r="G382">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H382">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I382">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
@@ -17275,14 +17275,14 @@
         <v>14</v>
       </c>
       <c r="G383">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H383">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I383">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
@@ -17305,14 +17305,14 @@
         <v>14</v>
       </c>
       <c r="G384">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H384">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I384">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
@@ -17335,14 +17335,14 @@
         <v>14</v>
       </c>
       <c r="G385">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H385">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I385">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
@@ -17365,14 +17365,14 @@
         <v>14</v>
       </c>
       <c r="G386">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H386">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I386">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
@@ -17395,14 +17395,14 @@
         <v>14</v>
       </c>
       <c r="G387">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H387">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I387">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
@@ -17425,14 +17425,14 @@
         <v>14</v>
       </c>
       <c r="G388">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H388">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I388">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
@@ -17455,14 +17455,14 @@
         <v>18</v>
       </c>
       <c r="G389">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H389">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I389">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
@@ -17485,14 +17485,14 @@
         <v>18</v>
       </c>
       <c r="G390">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H390">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I390">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
@@ -17515,14 +17515,14 @@
         <v>18</v>
       </c>
       <c r="G391">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H391">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I391">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
@@ -17545,14 +17545,14 @@
         <v>18</v>
       </c>
       <c r="G392">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H392">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I392">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
@@ -17575,14 +17575,14 @@
         <v>18</v>
       </c>
       <c r="G393">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H393">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I393">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
@@ -17605,14 +17605,14 @@
         <v>18</v>
       </c>
       <c r="G394">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H394">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I394">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
@@ -17635,14 +17635,14 @@
         <v>18</v>
       </c>
       <c r="G395">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H395">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I395">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
@@ -17665,14 +17665,14 @@
         <v>18</v>
       </c>
       <c r="G396">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H396">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I396">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
@@ -17695,14 +17695,14 @@
         <v>18</v>
       </c>
       <c r="G397">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H397">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>15</v>
       </c>
       <c r="I397">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
@@ -17725,14 +17725,14 @@
         <v>14</v>
       </c>
       <c r="G398">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H398">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I398">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
@@ -17755,14 +17755,14 @@
         <v>14</v>
       </c>
       <c r="G399">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H399">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I399">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
@@ -17785,14 +17785,14 @@
         <v>14</v>
       </c>
       <c r="G400">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H400">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I400">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
@@ -17815,14 +17815,14 @@
         <v>14</v>
       </c>
       <c r="G401">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H401">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I401">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.2">
@@ -17845,14 +17845,14 @@
         <v>14</v>
       </c>
       <c r="G402">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H402">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I402">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
@@ -17875,14 +17875,14 @@
         <v>14</v>
       </c>
       <c r="G403">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H403">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I403">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
@@ -17905,14 +17905,14 @@
         <v>14</v>
       </c>
       <c r="G404">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H404">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I404">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
@@ -17935,14 +17935,14 @@
         <v>14</v>
       </c>
       <c r="G405">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H405">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I405">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -17965,14 +17965,14 @@
         <v>14</v>
       </c>
       <c r="G406">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H406">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I406">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
@@ -17995,14 +17995,14 @@
         <v>14</v>
       </c>
       <c r="G407">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H407">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I407">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -18025,14 +18025,14 @@
         <v>14</v>
       </c>
       <c r="G408">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H408">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I408">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -18055,14 +18055,14 @@
         <v>14</v>
       </c>
       <c r="G409">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H409">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I409">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
@@ -18085,14 +18085,14 @@
         <v>14</v>
       </c>
       <c r="G410">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H410">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I410">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -18115,14 +18115,14 @@
         <v>14</v>
       </c>
       <c r="G411">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H411">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I411">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
@@ -18145,14 +18145,14 @@
         <v>14</v>
       </c>
       <c r="G412">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H412">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I412">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -18175,14 +18175,14 @@
         <v>14</v>
       </c>
       <c r="G413">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H413">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I413">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
@@ -18205,14 +18205,14 @@
         <v>14</v>
       </c>
       <c r="G414">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H414">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I414">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.2">
@@ -18235,14 +18235,14 @@
         <v>14</v>
       </c>
       <c r="G415">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H415">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I415">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
@@ -18265,14 +18265,14 @@
         <v>14</v>
       </c>
       <c r="G416">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H416">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I416">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
@@ -18295,14 +18295,14 @@
         <v>14</v>
       </c>
       <c r="G417">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H417">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I417">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
@@ -18325,14 +18325,14 @@
         <v>14</v>
       </c>
       <c r="G418">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H418">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I418">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
@@ -18355,14 +18355,14 @@
         <v>14</v>
       </c>
       <c r="G419">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H419">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I419">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
@@ -18385,14 +18385,14 @@
         <v>14</v>
       </c>
       <c r="G420">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H420">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I420">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
@@ -18415,14 +18415,14 @@
         <v>14</v>
       </c>
       <c r="G421">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H421">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I421">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
@@ -18445,14 +18445,14 @@
         <v>14</v>
       </c>
       <c r="G422">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H422">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I422">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
@@ -18475,14 +18475,14 @@
         <v>14</v>
       </c>
       <c r="G423">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H423">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I423">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
@@ -18505,14 +18505,14 @@
         <v>14</v>
       </c>
       <c r="G424">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H424">
         <f>Table1[[#This Row],[occupied_min]]-3</f>
         <v>11</v>
       </c>
       <c r="I424">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
